--- a/biology/Médecine/Albert_Brault/Albert_Brault.xlsx
+++ b/biology/Médecine/Albert_Brault/Albert_Brault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Marie Philippe Auguste Albert Brault, né le 1er mai 1852 à Montfort l'Amaury et mort le 26 aout 1939 à Paris[1], est un médecin, histologiste et anatomo-pathologiste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Marie Philippe Auguste Albert Brault, né le 1er mai 1852 à Montfort l'Amaury et mort le 26 aout 1939 à Paris, est un médecin, histologiste et anatomo-pathologiste français.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert Brault est le fils de Eugène Brault, notaire et maire de Montfort-L'Amaury et de Marthe Thérèse Robert.
-Il est élève au lycée de Versailles, puis étudiant à la faculté de médecine, externe en 1874, interne de 1877 à 1880, il a pour professeur Cornil, Ernest Henry P. E Lecorché, Hardy et Cadet de Tassicourt[2]. Il travaille longtemps au Collège de France avec Ranvier, Malassez et Darier et y prend goût pour l'histologie.
+Il est élève au lycée de Versailles, puis étudiant à la faculté de médecine, externe en 1874, interne de 1877 à 1880, il a pour professeur Cornil, Ernest Henry P. E Lecorché, Hardy et Cadet de Tassicourt. Il travaille longtemps au Collège de France avec Ranvier, Malassez et Darier et y prend goût pour l'histologie.
 Il est docteur en médecine en 1881,médecin des hôpitaux de Paris en 1884, chef des travaux d'anatomie pathologique à la faculté de médecine de Paris de 1887 à 1908, médecin de l'hôpital Tenon (1891-1900), de Lariboisière en 1900, chargé de cours de clinque annexe en 1902.
 </t>
         </is>
@@ -544,11 +558,11 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le pronostic des tumeurs basé sur la recherche du glycogène, Paris, Masson, coll. « L'oeuvre médico-chirurgical, n°15 », 1899, 28 p. (lire en ligne).
-En collaboration
-avec Victor André Cornil : Études sur la pathologie du rein, F. Alcan (Paris), 1884, lire en ligne sur Gallica.</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le pronostic des tumeurs basé sur la recherche du glycogène, Paris, Masson, coll. « L'oeuvre médico-chirurgical, n°15 », 1899, 28 p. (lire en ligne).</t>
         </is>
       </c>
     </row>
@@ -573,16 +587,88 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvres et publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En collaboration</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>avec Victor André Cornil : Études sur la pathologie du rein, F. Alcan (Paris), 1884, lire en ligne sur Gallica.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Albert_Brault</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Brault</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Distinctions et reconnaissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de la Légion d'honneur en 1912
- Officier de la Légion d'honneur en 1921[3].
-Prix de l'académie des sciences (Prix Roy-Vaucouloux) en 1932, pour ses études sur le glycogène dans le développement des tumeurs, des tissus normaux et des êtres organisés[4].
-Sociétés savantes
-Membre de l'Académie de médecine en 1910 dans la section d'anatomie pathologique.
+ Officier de la Légion d'honneur en 1921.
+Prix de l'académie des sciences (Prix Roy-Vaucouloux) en 1932, pour ses études sur le glycogène dans le développement des tumeurs, des tissus normaux et des êtres organisés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Albert_Brault</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Brault</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distinctions et reconnaissance</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sociétés savantes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Membre de l'Académie de médecine en 1910 dans la section d'anatomie pathologique.
 Président de la Société anatomique de Paris.
 Président de la Société du Cancer.
 Président de la Société des Hôpitaux.</t>
